--- a/Financial Engineering 2/Assignment1.xlsx
+++ b/Financial Engineering 2/Assignment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\FinEngineering 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14625"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">data!$B$22</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">data!$E$18</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">data!$E$18</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -25,14 +30,14 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">data!$B$20</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">data!$B$25</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">data!$D$22</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">data!$G$18</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">data!$G$18</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
@@ -41,12 +46,12 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="tau">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Covariance matrix</t>
   </si>
@@ -104,16 +109,45 @@
   </si>
   <si>
     <t>Excess return</t>
+  </si>
+  <si>
+    <t>Volatility %</t>
+  </si>
+  <si>
+    <t>Sharpe Portfolio Calculations</t>
+  </si>
+  <si>
+    <t>Positions</t>
+  </si>
+  <si>
+    <t>Sum-of-positions</t>
+  </si>
+  <si>
+    <t>Sharpe Optimal Portfolio</t>
+  </si>
+  <si>
+    <t>Mean Excess Return</t>
+  </si>
+  <si>
+    <t>Optimal Sharpe Ratio</t>
+  </si>
+  <si>
+    <t>Return on this opportunity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,9 +178,18 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +226,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -213,7 +268,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -240,6 +295,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
@@ -251,6 +314,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -299,7 +365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,7 +400,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -543,27 +609,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G27"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
@@ -574,7 +640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -588,12 +654,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
@@ -605,7 +671,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -618,8 +684,11 @@
       <c r="D6" s="12">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -632,8 +701,11 @@
       <c r="D7" s="12">
         <v>-2E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -646,8 +718,11 @@
       <c r="D8" s="12">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
@@ -658,7 +733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -675,24 +750,24 @@
         <v>8.9442719099991592</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3">
-        <f>B2-rf</f>
+        <f xml:space="preserve"> B2 - rf</f>
         <v>5</v>
       </c>
       <c r="C15" s="3">
-        <f>C2-rf</f>
+        <f>C2 - rf</f>
         <v>1</v>
       </c>
       <c r="D15" s="3">
@@ -700,7 +775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -714,22 +789,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
-        <f ca="1">NORMINV(RAND(),0,1)</f>
-        <v>0.93671777899133712</v>
+        <v>0.16666666581397999</v>
       </c>
       <c r="C18" s="11">
-        <f t="shared" ref="C18:D18" ca="1" si="0">NORMINV(RAND(),0,1)</f>
-        <v>-0.41180830950717173</v>
+        <v>0.66666666032370503</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.12671067762451182</v>
+        <v>0.16666667386231601</v>
       </c>
       <c r="E18" s="4">
-        <f ca="1">SUM(B18:D18)</f>
-        <v>0.39819879185965357</v>
+        <f>SUM(B18:D18)</f>
+        <v>1.0000000000000009</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>4</v>
@@ -738,34 +810,133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="7">
-        <f ca="1">SUMPRODUCT(B18:D18,B2:D2)</f>
-        <v>4.289847344435632</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="B20" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="8">
-        <f t="array" aca="1" ref="B22" ca="1">100*SQRT(MMULT(B18:D18,MMULT(B6:D8,TRANSPOSE(B18:D18))))</f>
-        <v>8.8723570589995226</v>
+      <c r="B22" s="8" t="e">
+        <f>100*SQRT(MMULT(B18:D18,MMULT(B6:D8,TRANSPOSE(B18:D18))))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="5">
-        <v>85.940286092179008</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>85.940286092178994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="17">
+        <f t="array" ref="B25">100*SQRT(MMULT(B2:D2,MMULT(B6:D8,TRANSPOSE(B2:D2))))</f>
+        <v>73.212020870892516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="20">
+        <f t="array" ref="B28:D28">(MMULT(B15:D15,MINVERSE(B6:D8)))</f>
+        <v>875</v>
+      </c>
+      <c r="C28" s="20">
+        <v>1750</v>
+      </c>
+      <c r="D28" s="20">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <f t="array" ref="B29">SUM(B28:D28)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="18">
+        <f>(B28)/$B$29</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C30" s="18">
+        <f t="array" ref="C30">(C28)/$B$29</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D30" s="19">
+        <f t="array" ref="D30">(D28)/$B$29</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="21">
+        <f>SUMPRODUCT(B15:D15,B30:D30)</f>
+        <v>2.416666666666667</v>
+      </c>
+      <c r="C31">
+        <f t="array" ref="C31" xml:space="preserve"> SUM(B31 + rf)</f>
+        <v>3.416666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <f t="array" ref="B32">100*SQRT(MMULT(B30:D30,MMULT(B6:D8,TRANSPOSE(B30:D30))))</f>
+        <v>2.8382310609877335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="17">
+        <f>B31/B32</f>
+        <v>0.85146931829632022</v>
+      </c>
+      <c r="C33">
+        <f t="array" ref="C33">SUM(B33+0.05 + rf)</f>
+        <v>1.9014693182963203</v>
+      </c>
+      <c r="D33" s="17">
+        <f t="array" ref="D33">(B33+rf) *B32</f>
+        <v>5.2548977276544004</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
